--- a/public/Мегамаркет excel фид.xlsx
+++ b/public/Мегамаркет excel фид.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="96">
   <si>
     <t>Файл загрузки товаров "Excel фид"</t>
   </si>
@@ -749,6 +749,15 @@
   </si>
   <si>
     <t>16647</t>
+  </si>
+  <si>
+    <t>DF333DZ</t>
+  </si>
+  <si>
+    <t>Акк. безударная дрель-шуруповерт Makita DF333DZ БЕЗ АККУМУЛЯТОРА И З/У</t>
+  </si>
+  <si>
+    <t>5120</t>
   </si>
   <si>
     <t>Время заказа до</t>
@@ -1808,10 +1817,10 @@
         <v>23</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1819,27 +1828,27 @@
         <v>47</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3" s="51">
         <v>10</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -1847,41 +1856,41 @@
         <v>20</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="52" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="52" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.25">
@@ -1891,32 +1900,32 @@
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" s="52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C13" s="52" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C15" s="52" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" s="52" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2237,7 +2246,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2798,6 +2807,93 @@
         <v>54</v>
       </c>
       <c r="Q17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20" t="s">
         <v>55</v>
       </c>
     </row>
